--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,10 +572,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -819,10 +819,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -857,10 +857,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B175" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B176" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B182" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B183" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B184" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3935,10 +3935,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B185" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B190" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B191" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4182,30 +4182,28 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>199</v>
-      </c>
-      <c r="B198" t="n">
-        <v>192</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>gorro</t>
-        </is>
-      </c>
+        <v>1152</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>pruea</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -4218,11 +4216,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>pruea</t>
+          <t>pruea2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -4235,11 +4233,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>pruea2</t>
+          <t>zapato</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -4252,11 +4250,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>zapato</t>
+          <t>zapatos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -4269,33 +4267,37 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>zapatos</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>amigo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>amigo</t>
+          <t>anonimo</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>sss</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4307,39 +4309,18 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>anonimo</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,6 +4324,128 @@
         <v>0</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>bonito</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>masbonito</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>4</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>aunmasbonito</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>superbonito</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>superbonito2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>pepino</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,6 +4446,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>pera</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="n">
+        <v>3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>jmaon</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4309,28 +4309,32 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>bonito</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>bonito</t>
+          <t>masbonito</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4347,11 +4351,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>masbonito</t>
+          <t>aunmasbonito</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4368,11 +4372,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>aunmasbonito</t>
+          <t>superbonito</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4389,11 +4393,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>superbonito</t>
+          <t>superbonito2</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4410,37 +4414,33 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>superbonito2</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
+          <t>pepino</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>pepino</t>
+          <t>pera</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -4448,35 +4448,18 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pera</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1167</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>jmaon</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,23 +4446,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1167</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>submit</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4328,124 +4328,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>masbonito</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>4</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>aunmasbonito</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>4</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1163</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>superbonito</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>4</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1164</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>superbonito2</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>4</v>
-      </c>
-      <c r="E209" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>pepino</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1166</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>pera</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="n">
-        <v>3</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4265,69 +4265,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>1157</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>amigo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>3</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>anonimo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>3</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>bonito</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>muy bonito</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>4</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/articulos.xlsx
+++ b/data/articulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4265,6 +4265,170 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>amigo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>anonimo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>bonito</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>masbonito</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>aunmasbonito</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>4</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>superbonito</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>superbonito2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>muy bonito</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>pepino</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
